--- a/Tables/Specifications.xlsx
+++ b/Tables/Specifications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fredrikfeyling/Documents/Skole/V20/Radio/Project Report/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB7A36A-DAF8-1240-BC35-38225816284A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1415338A-789D-484F-BA19-3E30A5D84541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{36E50130-CFC4-5141-9FA9-1E6221641BA0}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16040" activeTab="1" xr2:uid="{36E50130-CFC4-5141-9FA9-1E6221641BA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel2LaTeX" sheetId="2" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>System Variables</t>
   </si>
@@ -226,6 +226,24 @@
   </si>
   <si>
     <t>System bit rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packet data fraction: </t>
+  </si>
+  <si>
+    <t>Packet bit rate</t>
+  </si>
+  <si>
+    <t>FEC bit rate</t>
+  </si>
+  <si>
+    <t>Packet length symb</t>
+  </si>
+  <si>
+    <t>Barker packet length</t>
+  </si>
+  <si>
+    <t>Barker symbol rate</t>
   </si>
 </sst>
 </file>
@@ -389,7 +407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,6 +465,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Beregning" xfId="1" builtinId="22"/>
@@ -812,10 +831,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64562D7C-5AB1-3249-8BE2-00D156FBFD21}">
   <sheetPr codeName="Ark2"/>
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -826,19 +845,23 @@
     <col min="4" max="4" width="15" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="4"/>
+    <col min="7" max="7" width="10.83203125" style="4"/>
+    <col min="8" max="8" width="10.1640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="4"/>
+    <col min="10" max="11" width="10.83203125" style="35"/>
+    <col min="12" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J1" s="29"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -858,10 +881,10 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -875,10 +898,10 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -897,10 +920,10 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -913,10 +936,10 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -932,10 +955,10 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -954,10 +977,10 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -976,10 +999,10 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -1003,10 +1026,10 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>54</v>
       </c>
@@ -1019,10 +1042,10 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>55</v>
       </c>
@@ -1043,10 +1066,10 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>13</v>
       </c>
@@ -1058,10 +1081,10 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -1079,10 +1102,10 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -1098,10 +1121,10 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1117,12 +1140,20 @@
         <v>779</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J15" s="29">
+        <f>E14/(E13+E14)</f>
+        <v>0.92086330935251803</v>
+      </c>
+      <c r="K15" s="29">
+        <f>F14/(F13+F14)</f>
+        <v>0.92086330935251803</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>16</v>
       </c>
@@ -1132,12 +1163,26 @@
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J16" s="29">
+        <f>1/J15 * E9</f>
+        <v>95.779687500000009</v>
+      </c>
+      <c r="K16" s="29">
+        <f>1/K15 * F9</f>
+        <v>287.33906250000001</v>
+      </c>
+      <c r="L16" s="29">
+        <v>95.779687499999994</v>
+      </c>
+      <c r="M16" s="29">
+        <v>287.33906250000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1148,12 +1193,26 @@
         <v>17</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J17" s="29">
+        <f>J16*7/4</f>
+        <v>167.61445312500001</v>
+      </c>
+      <c r="K17" s="29">
+        <f>K16*7/4</f>
+        <v>502.84335937500003</v>
+      </c>
+      <c r="L17" s="4">
+        <v>167.61445312500001</v>
+      </c>
+      <c r="M17" s="4">
+        <v>502.84335937499998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
@@ -1167,12 +1226,20 @@
         <v>26</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J18" s="35">
+        <f>J17/E6</f>
+        <v>83.807226562500006</v>
+      </c>
+      <c r="K18" s="35">
+        <f>K17/F6</f>
+        <v>83.807226562500006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>33</v>
       </c>
@@ -1188,12 +1255,20 @@
         <v>156</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J19" s="29">
+        <f>E15/E6</f>
+        <v>133.5</v>
+      </c>
+      <c r="K19" s="29">
+        <f>F15/F6</f>
+        <v>129.83333333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -1209,12 +1284,20 @@
         <v>935</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J20" s="29">
+        <f>J19+E18</f>
+        <v>159.5</v>
+      </c>
+      <c r="K20" s="29">
+        <f>K19+F18</f>
+        <v>155.83333333333334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>20</v>
       </c>
@@ -1224,12 +1307,26 @@
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J21" s="29">
+        <f>J18*J20/J19</f>
+        <v>100.12923323384832</v>
+      </c>
+      <c r="K21" s="29">
+        <f>K18*K20/K19</f>
+        <v>100.59018849285944</v>
+      </c>
+      <c r="L21" s="4">
+        <v>100.129233233848</v>
+      </c>
+      <c r="M21" s="4">
+        <v>100.590188492859</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -1245,10 +1342,10 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
@@ -1266,10 +1363,10 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>36</v>
       </c>
@@ -1280,7 +1377,7 @@
       <c r="F24" s="22"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>63</v>
       </c>
@@ -1308,10 +1405,10 @@
         <f>F15/F23</f>
         <v>0.80226570545829046</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>37</v>
       </c>
@@ -1335,10 +1432,10 @@
         <v>52</v>
       </c>
       <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -1348,10 +1445,10 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -1367,10 +1464,10 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>41</v>
       </c>
@@ -1388,10 +1485,10 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
         <v>43</v>
       </c>
@@ -1413,10 +1510,10 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -1426,10 +1523,10 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -1439,8 +1536,8 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
@@ -1452,8 +1549,8 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
@@ -1465,8 +1562,8 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
@@ -1478,8 +1575,8 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
     </row>
     <row r="36" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
@@ -1491,8 +1588,8 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
@@ -1504,8 +1601,8 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
@@ -1517,8 +1614,8 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
@@ -1530,8 +1627,8 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
@@ -1543,8 +1640,8 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
@@ -1556,8 +1653,8 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
@@ -1569,8 +1666,8 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
@@ -1582,8 +1679,8 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
@@ -1595,8 +1692,8 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
@@ -1608,8 +1705,8 @@
       <c r="G45" s="5"/>
       <c r="H45" s="11"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
@@ -1621,8 +1718,8 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
@@ -1634,8 +1731,8 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
@@ -1647,8 +1744,8 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
@@ -1660,8 +1757,8 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
@@ -1673,8 +1770,8 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
@@ -1686,8 +1783,8 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
@@ -1699,8 +1796,8 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
@@ -1712,8 +1809,8 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
@@ -1725,8 +1822,8 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
@@ -1738,8 +1835,8 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
@@ -1751,8 +1848,8 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
@@ -1764,8 +1861,8 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
@@ -1777,8 +1874,8 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
@@ -1790,8 +1887,8 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
@@ -1803,8 +1900,8 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
@@ -1816,8 +1913,8 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
@@ -1829,8 +1926,8 @@
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
@@ -1842,8 +1939,8 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
@@ -1855,8 +1952,8 @@
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
@@ -1868,8 +1965,8 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
@@ -1881,8 +1978,8 @@
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="12"/>
@@ -1894,8 +1991,8 @@
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
@@ -1907,8 +2004,8 @@
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
@@ -1920,8 +2017,8 @@
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
@@ -1933,8 +2030,8 @@
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
@@ -1946,8 +2043,8 @@
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
@@ -1959,8 +2056,8 @@
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
@@ -1972,8 +2069,8 @@
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
@@ -1985,8 +2082,8 @@
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="12"/>
@@ -1998,8 +2095,8 @@
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="12"/>
@@ -2011,8 +2108,8 @@
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="12"/>
@@ -2024,8 +2121,8 @@
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="12"/>
@@ -2037,8 +2134,8 @@
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="12"/>
@@ -2050,8 +2147,8 @@
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="12"/>
@@ -2063,8 +2160,8 @@
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="12"/>
@@ -2076,8 +2173,8 @@
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
@@ -2089,8 +2186,8 @@
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
@@ -2102,8 +2199,8 @@
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="29"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
@@ -2115,8 +2212,8 @@
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Tables/Specifications.xlsx
+++ b/Tables/Specifications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fredrikfeyling/Documents/Skole/V20/Radio/Project Report/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1415338A-789D-484F-BA19-3E30A5D84541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10370F2-3D09-584E-A63E-B59912CB122D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16040" activeTab="1" xr2:uid="{36E50130-CFC4-5141-9FA9-1E6221641BA0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{36E50130-CFC4-5141-9FA9-1E6221641BA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel2LaTeX" sheetId="2" state="hidden" r:id="rId1"/>
@@ -462,10 +462,10 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Beregning" xfId="1" builtinId="22"/>
@@ -834,7 +834,7 @@
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -848,7 +848,7 @@
     <col min="7" max="7" width="10.83203125" style="4"/>
     <col min="8" max="8" width="10.1640625" style="4" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="4"/>
-    <col min="10" max="11" width="10.83203125" style="35"/>
+    <col min="10" max="11" width="10.83203125" style="34"/>
     <col min="12" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
@@ -874,10 +874,10 @@
       <c r="D2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -1076,8 +1076,8 @@
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -1160,8 +1160,8 @@
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
         <v>65</v>
@@ -1230,11 +1230,11 @@
         <v>37</v>
       </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="35">
+      <c r="J18" s="34">
         <f>J17/E6</f>
         <v>83.807226562500006</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="34">
         <f>K17/F6</f>
         <v>83.807226562500006</v>
       </c>
@@ -1304,8 +1304,8 @@
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
         <v>69</v>
@@ -1420,12 +1420,10 @@
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="31">
-        <f>E25/E6</f>
-        <v>95.673876404494379</v>
+        <v>150</v>
       </c>
       <c r="F26" s="31">
-        <f>F25/F6</f>
-        <v>96.196309370988459</v>
+        <v>150</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="15" t="s">
@@ -1477,10 +1475,10 @@
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F29" s="6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -1501,11 +1499,11 @@
       <c r="D30" s="17"/>
       <c r="E30" s="33">
         <f>(1+E29)*E26/2</f>
-        <v>62.188019662921349</v>
+        <v>112.5</v>
       </c>
       <c r="F30" s="33">
         <f>(1+F29)*F26/2</f>
-        <v>62.5276010911425</v>
+        <v>112.5</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
